--- a/final/part2Data/id-phone/CNN-result.xlsx
+++ b/final/part2Data/id-phone/CNN-result.xlsx
@@ -43,85 +43,85 @@
     <t>1.jpg</t>
   </si>
   <si>
-    <t>14119114</t>
-  </si>
-  <si>
-    <t>116340025412731199</t>
-  </si>
-  <si>
-    <t>80223067813</t>
+    <t>16340025</t>
+  </si>
+  <si>
+    <t>412731199802230678</t>
+  </si>
+  <si>
+    <t>13823241935</t>
   </si>
   <si>
     <t>2.jpg</t>
   </si>
   <si>
-    <t>82324193</t>
-  </si>
-  <si>
-    <t>516340049470129199</t>
-  </si>
-  <si>
-    <t>60917594315</t>
+    <t>16340049</t>
+  </si>
+  <si>
+    <t>470129199609175943</t>
+  </si>
+  <si>
+    <t>15077704386</t>
   </si>
   <si>
     <t>3.jpg</t>
   </si>
   <si>
-    <t>07770438</t>
-  </si>
-  <si>
-    <t>616340177442766199</t>
-  </si>
-  <si>
-    <t>82016222018</t>
+    <t>16340177</t>
+  </si>
+  <si>
+    <t>442766199820162220</t>
+  </si>
+  <si>
+    <t>18575761997</t>
   </si>
   <si>
     <t>4.jpg</t>
   </si>
   <si>
-    <t>57576199</t>
-  </si>
-  <si>
-    <t>716340182342501199</t>
-  </si>
-  <si>
-    <t>71028092418</t>
+    <t>16340182</t>
+  </si>
+  <si>
+    <t>342501199710280924</t>
+  </si>
+  <si>
+    <t>18365359627</t>
   </si>
   <si>
     <t>5.jpg</t>
   </si>
   <si>
-    <t>36535962</t>
-  </si>
-  <si>
-    <t>716340210500101199</t>
-  </si>
-  <si>
-    <t>710129544145</t>
+    <t>16340210</t>
+  </si>
+  <si>
+    <t>500101199710129544</t>
+  </si>
+  <si>
+    <t>145213554471</t>
   </si>
   <si>
     <t>6.jpg</t>
   </si>
   <si>
-    <t>21355447</t>
-  </si>
-  <si>
-    <t>116340282513028199</t>
-  </si>
-  <si>
-    <t>80814001315</t>
+    <t>16340282</t>
+  </si>
+  <si>
+    <t>513028199808140013</t>
+  </si>
+  <si>
+    <t>15989004228</t>
   </si>
   <si>
     <t>7.jpg</t>
   </si>
   <si>
-    <t>98900422</t>
-  </si>
-  <si>
-    <t>816340292441441199</t>
-  </si>
-  <si>
-    <t>90101112113</t>
+    <t>16340292</t>
+  </si>
+  <si>
+    <t>441441199901011121</t>
+  </si>
+  <si>
+    <t>13277774859</t>
   </si>
 </sst>
 </file>
